--- a/outcome/simulate data/B_Dysentery.xlsx
+++ b/outcome/simulate data/B_Dysentery.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>8123.93415351158</v>
+        <v>7714.54434289483</v>
       </c>
       <c r="C2" t="n">
-        <v>5706.28784043045</v>
+        <v>6036.94453181061</v>
       </c>
       <c r="D2" t="n">
-        <v>4733.05865560757</v>
+        <v>5302.04179369505</v>
       </c>
       <c r="E2" t="n">
-        <v>11565.8915175953</v>
+        <v>9858.33050227495</v>
       </c>
       <c r="F2" t="n">
-        <v>13944.1132960394</v>
+        <v>11224.7690105465</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>9358.12229335872</v>
+        <v>8761.05549901866</v>
       </c>
       <c r="C3" t="n">
-        <v>6552.97899456879</v>
+        <v>6829.50086228794</v>
       </c>
       <c r="D3" t="n">
-        <v>5426.49123344965</v>
+        <v>5985.88771355113</v>
       </c>
       <c r="E3" t="n">
-        <v>13364.0673852366</v>
+        <v>11238.9023743634</v>
       </c>
       <c r="F3" t="n">
-        <v>16138.3201575332</v>
+        <v>12822.8421798025</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>9133.47700610187</v>
+        <v>8479.05924527055</v>
       </c>
       <c r="C4" t="n">
-        <v>6376.20902463381</v>
+        <v>6584.6743824638</v>
       </c>
       <c r="D4" t="n">
-        <v>5271.59667811828</v>
+        <v>5759.73654666033</v>
       </c>
       <c r="E4" t="n">
-        <v>13083.0720728736</v>
+        <v>10918.4511653722</v>
       </c>
       <c r="F4" t="n">
-        <v>15824.5039054788</v>
+        <v>12482.2455163326</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>7085.54686184992</v>
+        <v>6600.93572752184</v>
       </c>
       <c r="C5" t="n">
-        <v>4931.61710165328</v>
+        <v>5107.08926553715</v>
       </c>
       <c r="D5" t="n">
-        <v>4070.75795148224</v>
+        <v>4458.46007589665</v>
       </c>
       <c r="E5" t="n">
-        <v>10180.2255318323</v>
+        <v>8531.73896389521</v>
       </c>
       <c r="F5" t="n">
-        <v>12333.0777535399</v>
+        <v>9772.96011114585</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>5456.06314704617</v>
+        <v>5099.69529448498</v>
       </c>
       <c r="C6" t="n">
-        <v>3786.15009177702</v>
+        <v>3931.1491518066</v>
       </c>
       <c r="D6" t="n">
-        <v>3120.30381278509</v>
+        <v>3425.21515112238</v>
       </c>
       <c r="E6" t="n">
-        <v>7862.50527394798</v>
+        <v>6615.59536214507</v>
       </c>
       <c r="F6" t="n">
-        <v>9540.29698729394</v>
+        <v>7592.77620504228</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>3632.80039151631</v>
+        <v>3458.01621703241</v>
       </c>
       <c r="C7" t="n">
-        <v>2513.47757787646</v>
+        <v>2656.04004411476</v>
       </c>
       <c r="D7" t="n">
-        <v>2068.20629032609</v>
+        <v>2309.79300797726</v>
       </c>
       <c r="E7" t="n">
-        <v>5250.5893829182</v>
+        <v>4502.14453044688</v>
       </c>
       <c r="F7" t="n">
-        <v>6381.00693646004</v>
+        <v>5177.03366317267</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>2943.0554678572</v>
+        <v>2868.86125549451</v>
       </c>
       <c r="C8" t="n">
-        <v>2030.2954632387</v>
+        <v>2195.7018814776</v>
       </c>
       <c r="D8" t="n">
-        <v>1668.031953578</v>
+        <v>1905.87581312768</v>
       </c>
       <c r="E8" t="n">
-        <v>4266.1650206652</v>
+        <v>3748.39816493617</v>
       </c>
       <c r="F8" t="n">
-        <v>5192.69158381813</v>
+        <v>4318.41615628192</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>2504.13856051225</v>
+        <v>2453.16763896843</v>
       </c>
       <c r="C9" t="n">
-        <v>1722.49692649094</v>
+        <v>1870.98490605384</v>
       </c>
       <c r="D9" t="n">
-        <v>1412.98061824721</v>
+        <v>1621.01286081602</v>
       </c>
       <c r="E9" t="n">
-        <v>3640.47670205079</v>
+        <v>3216.50455084363</v>
       </c>
       <c r="F9" t="n">
-        <v>4437.93060517924</v>
+        <v>3712.5130900272</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>2418.75041261042</v>
+        <v>2363.88844855049</v>
       </c>
       <c r="C10" t="n">
-        <v>1658.98388158406</v>
+        <v>1796.68264506884</v>
       </c>
       <c r="D10" t="n">
-        <v>1358.81001871139</v>
+        <v>1553.79673801143</v>
       </c>
       <c r="E10" t="n">
-        <v>3526.46799251414</v>
+        <v>3110.15894349907</v>
       </c>
       <c r="F10" t="n">
-        <v>4305.49780906911</v>
+        <v>3596.33178554745</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>3085.37059519148</v>
+        <v>2988.24169863511</v>
       </c>
       <c r="C11" t="n">
-        <v>2110.18677211725</v>
+        <v>2263.51166252103</v>
       </c>
       <c r="D11" t="n">
-        <v>1725.76775719556</v>
+        <v>1953.99519566625</v>
       </c>
       <c r="E11" t="n">
-        <v>4511.21760190015</v>
+        <v>3945.01543655231</v>
       </c>
       <c r="F11" t="n">
-        <v>5516.10242454743</v>
+        <v>4569.91320616679</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>3797.19571569129</v>
+        <v>3671.96122550396</v>
       </c>
       <c r="C12" t="n">
-        <v>2589.70428230273</v>
+        <v>2772.09576680082</v>
       </c>
       <c r="D12" t="n">
-        <v>2114.76653688093</v>
+        <v>2388.78885091306</v>
       </c>
       <c r="E12" t="n">
-        <v>5567.69952530774</v>
+        <v>4863.93702666524</v>
       </c>
       <c r="F12" t="n">
-        <v>6818.10263771738</v>
+        <v>5644.40814283391</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>5688.20935334491</v>
+        <v>5443.95789415068</v>
       </c>
       <c r="C13" t="n">
-        <v>3868.54214717254</v>
+        <v>4096.26277416071</v>
       </c>
       <c r="D13" t="n">
-        <v>3154.39573372173</v>
+        <v>3523.68105950138</v>
       </c>
       <c r="E13" t="n">
-        <v>8363.80331829365</v>
+        <v>7235.05282430466</v>
       </c>
       <c r="F13" t="n">
-        <v>10257.3451078396</v>
+        <v>8410.71511661707</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>7373.98663395828</v>
+        <v>6937.85611973024</v>
       </c>
       <c r="C14" t="n">
-        <v>5001.14414192357</v>
+        <v>5203.31769764433</v>
       </c>
       <c r="D14" t="n">
-        <v>4071.9315391966</v>
+        <v>4468.26049792759</v>
       </c>
       <c r="E14" t="n">
-        <v>10872.6478051243</v>
+        <v>9250.60708091489</v>
       </c>
       <c r="F14" t="n">
-        <v>13353.780227976</v>
+        <v>10772.3906339846</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>8494.24274079645</v>
+        <v>7879.006174246</v>
       </c>
       <c r="C15" t="n">
-        <v>5745.09780596957</v>
+        <v>5890.15804415013</v>
       </c>
       <c r="D15" t="n">
-        <v>4670.85424998754</v>
+        <v>5049.45159611247</v>
       </c>
       <c r="E15" t="n">
-        <v>12558.9088604552</v>
+        <v>10539.4011210719</v>
       </c>
       <c r="F15" t="n">
-        <v>15447.3156039424</v>
+        <v>12294.1545457333</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>8290.3352109825</v>
+        <v>7625.40086097702</v>
       </c>
       <c r="C16" t="n">
-        <v>5591.9184632424</v>
+        <v>5682.4612109302</v>
       </c>
       <c r="D16" t="n">
-        <v>4539.7604512754</v>
+        <v>4863.20205898757</v>
       </c>
       <c r="E16" t="n">
-        <v>12290.8905704259</v>
+        <v>10232.6678761562</v>
       </c>
       <c r="F16" t="n">
-        <v>15139.4899903028</v>
+        <v>11956.4718030026</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>6431.45634445865</v>
+        <v>5936.36387291134</v>
       </c>
       <c r="C17" t="n">
-        <v>4326.37419450956</v>
+        <v>4409.91149592109</v>
       </c>
       <c r="D17" t="n">
-        <v>3507.31454182621</v>
+        <v>3767.84836638901</v>
       </c>
       <c r="E17" t="n">
-        <v>9560.80746856583</v>
+        <v>7991.18441814586</v>
       </c>
       <c r="F17" t="n">
-        <v>11793.533262386</v>
+        <v>9352.9284102747</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>4952.39571863837</v>
+        <v>4586.26597177945</v>
       </c>
       <c r="C18" t="n">
-        <v>3322.50723948721</v>
+        <v>3396.41600160448</v>
       </c>
       <c r="D18" t="n">
-        <v>2689.67808729137</v>
+        <v>2897.15000476451</v>
       </c>
       <c r="E18" t="n">
-        <v>7381.84196034228</v>
+        <v>6192.95031997424</v>
       </c>
       <c r="F18" t="n">
-        <v>9118.64637997876</v>
+        <v>7260.18174043831</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>3297.44444313356</v>
+        <v>3109.86856865511</v>
       </c>
       <c r="C19" t="n">
-        <v>2206.34568141736</v>
+        <v>2296.00147824307</v>
       </c>
       <c r="D19" t="n">
-        <v>1783.59709532905</v>
+        <v>1955.31803873709</v>
       </c>
       <c r="E19" t="n">
-        <v>4928.12162080037</v>
+        <v>4212.22834826291</v>
       </c>
       <c r="F19" t="n">
-        <v>6096.18611962723</v>
+        <v>4946.14294079523</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>2671.37217915486</v>
+        <v>2580.02880447776</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.7292123463</v>
+        <v>1899.06088141622</v>
       </c>
       <c r="D20" t="n">
-        <v>1439.1378905829</v>
+        <v>1614.68418474771</v>
       </c>
       <c r="E20" t="n">
-        <v>4002.97996473082</v>
+        <v>3505.17916359314</v>
       </c>
       <c r="F20" t="n">
-        <v>4958.6835050755</v>
+        <v>4122.50810084884</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>2272.97315880079</v>
+        <v>2206.18656919338</v>
       </c>
       <c r="C21" t="n">
-        <v>1512.89732851829</v>
+        <v>1619.03422033852</v>
       </c>
       <c r="D21" t="n">
-        <v>1219.62188492315</v>
+        <v>1374.40987495616</v>
       </c>
       <c r="E21" t="n">
-        <v>3414.909183354</v>
+        <v>3006.27319481338</v>
       </c>
       <c r="F21" t="n">
-        <v>4236.07270785763</v>
+        <v>3541.34473767842</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>2195.46747627943</v>
+        <v>2125.89586762056</v>
       </c>
       <c r="C22" t="n">
-        <v>1457.52293825372</v>
+        <v>1555.50012755087</v>
       </c>
       <c r="D22" t="n">
-        <v>1173.36919230283</v>
+        <v>1318.40750363296</v>
       </c>
       <c r="E22" t="n">
-        <v>3307.03367535043</v>
+        <v>2905.45346793511</v>
       </c>
       <c r="F22" t="n">
-        <v>4107.89500101069</v>
+        <v>3427.94866345388</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>2800.54972133366</v>
+        <v>2687.3902118669</v>
       </c>
       <c r="C23" t="n">
-        <v>1854.44442311782</v>
+        <v>1960.59305219351</v>
       </c>
       <c r="D23" t="n">
-        <v>1490.8753975284</v>
+        <v>1659.1821630851</v>
       </c>
       <c r="E23" t="n">
-        <v>4229.34149111663</v>
+        <v>3683.61304899962</v>
       </c>
       <c r="F23" t="n">
-        <v>5260.72048319022</v>
+        <v>4352.78675935693</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>3446.66388536988</v>
+        <v>3302.27392927464</v>
       </c>
       <c r="C24" t="n">
-        <v>2276.46169774175</v>
+        <v>2402.21836693427</v>
       </c>
       <c r="D24" t="n">
-        <v>1827.6824446273</v>
+        <v>2029.80116773548</v>
       </c>
       <c r="E24" t="n">
-        <v>5218.40185165313</v>
+        <v>4539.55945640532</v>
       </c>
       <c r="F24" t="n">
-        <v>6499.75709600661</v>
+        <v>5372.45385277466</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>5163.11173258232</v>
+        <v>4895.868752932</v>
       </c>
       <c r="C25" t="n">
-        <v>3401.51499731096</v>
+        <v>3551.28417910438</v>
       </c>
       <c r="D25" t="n">
-        <v>2727.2828926879</v>
+        <v>2996.18104261023</v>
       </c>
       <c r="E25" t="n">
-        <v>7837.0146197219</v>
+        <v>6749.53893776559</v>
       </c>
       <c r="F25" t="n">
-        <v>9774.46191394413</v>
+        <v>8000.02753673858</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>6693.26927696618</v>
+        <v>6239.36364853618</v>
       </c>
       <c r="C26" t="n">
-        <v>4398.52468113022</v>
+        <v>4513.00152986305</v>
       </c>
       <c r="D26" t="n">
-        <v>3521.97843380119</v>
+        <v>3801.86534261931</v>
       </c>
       <c r="E26" t="n">
-        <v>10185.2000072142</v>
+        <v>8626.11246219898</v>
       </c>
       <c r="F26" t="n">
-        <v>12720.0817540577</v>
+        <v>10239.6206152462</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>7710.11079763067</v>
+        <v>7085.76019188101</v>
       </c>
       <c r="C27" t="n">
-        <v>5054.11929764146</v>
+        <v>5110.86087051229</v>
       </c>
       <c r="D27" t="n">
-        <v>4041.58189937916</v>
+        <v>4299.13184115089</v>
       </c>
       <c r="E27" t="n">
-        <v>11761.8530570661</v>
+        <v>9823.7848317348</v>
       </c>
       <c r="F27" t="n">
-        <v>14708.5497688103</v>
+        <v>11678.6363740371</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>7525.02665354494</v>
+        <v>6857.68746373864</v>
       </c>
       <c r="C28" t="n">
-        <v>4920.58982002195</v>
+        <v>4932.64993298139</v>
       </c>
       <c r="D28" t="n">
-        <v>3929.64747520187</v>
+        <v>4143.13524838715</v>
       </c>
       <c r="E28" t="n">
-        <v>11507.9753053485</v>
+        <v>9533.99855843683</v>
       </c>
       <c r="F28" t="n">
-        <v>14409.9506365142</v>
+        <v>11350.7946352041</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>5837.74710931458</v>
+        <v>5338.70007015461</v>
       </c>
       <c r="C29" t="n">
-        <v>3807.90956107312</v>
+        <v>3829.52917221348</v>
       </c>
       <c r="D29" t="n">
-        <v>3037.09102411803</v>
+        <v>3211.9057710059</v>
       </c>
       <c r="E29" t="n">
-        <v>8949.6062775994</v>
+        <v>7442.61687464694</v>
       </c>
       <c r="F29" t="n">
-        <v>11221.0305985832</v>
+        <v>8873.77167050039</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>4495.22351427802</v>
+        <v>4124.52790790244</v>
       </c>
       <c r="C30" t="n">
-        <v>2925.04600971512</v>
+        <v>2950.55225392685</v>
       </c>
       <c r="D30" t="n">
-        <v>2329.92954262243</v>
+        <v>2471.13031442174</v>
       </c>
       <c r="E30" t="n">
-        <v>6908.27917790124</v>
+        <v>5765.60894335133</v>
       </c>
       <c r="F30" t="n">
-        <v>8672.80923034875</v>
+        <v>6884.18994489448</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>2993.04632342158</v>
+        <v>2796.77187940104</v>
       </c>
       <c r="C31" t="n">
-        <v>1942.86495596807</v>
+        <v>1995.34029557565</v>
       </c>
       <c r="D31" t="n">
-        <v>1545.59492093853</v>
+        <v>1668.74665648708</v>
       </c>
       <c r="E31" t="n">
-        <v>4610.88469717329</v>
+        <v>3920.09972572212</v>
       </c>
       <c r="F31" t="n">
-        <v>5796.03761165809</v>
+        <v>4687.31003295285</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>2424.76888305417</v>
+        <v>2320.27555155766</v>
       </c>
       <c r="C32" t="n">
-        <v>1570.19960615827</v>
+        <v>1650.97972454435</v>
       </c>
       <c r="D32" t="n">
-        <v>1247.54126665044</v>
+        <v>1378.80324790573</v>
       </c>
       <c r="E32" t="n">
-        <v>3744.43103486243</v>
+        <v>3260.89930428554</v>
       </c>
       <c r="F32" t="n">
-        <v>4712.87346831726</v>
+        <v>3904.60251912918</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>2063.1474080939</v>
+        <v>1984.07116610097</v>
       </c>
       <c r="C33" t="n">
-        <v>1332.83858182769</v>
+        <v>1408.03283644694</v>
       </c>
       <c r="D33" t="n">
-        <v>1057.61729131544</v>
+        <v>1174.26562374613</v>
       </c>
       <c r="E33" t="n">
-        <v>3193.61795611261</v>
+        <v>2795.77172510181</v>
       </c>
       <c r="F33" t="n">
-        <v>4024.68573696479</v>
+        <v>3352.34065661817</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>1992.7965342231</v>
+        <v>1911.86400641597</v>
       </c>
       <c r="C34" t="n">
-        <v>1284.34104619489</v>
+        <v>1353.24600502015</v>
       </c>
       <c r="D34" t="n">
-        <v>1017.85556679498</v>
+        <v>1127.01337954614</v>
       </c>
       <c r="E34" t="n">
-        <v>3092.04322214663</v>
+        <v>2701.07871404688</v>
       </c>
       <c r="F34" t="n">
-        <v>3901.57322547859</v>
+        <v>3243.28357175396</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>2542.02161448139</v>
+        <v>2416.82798086136</v>
       </c>
       <c r="C35" t="n">
-        <v>1634.45870107645</v>
+        <v>1706.24081832601</v>
       </c>
       <c r="D35" t="n">
-        <v>1293.7142610223</v>
+        <v>1419.04777400443</v>
       </c>
       <c r="E35" t="n">
-        <v>3953.52533792061</v>
+        <v>3423.34881825477</v>
       </c>
       <c r="F35" t="n">
-        <v>4994.82310984526</v>
+        <v>4116.18100255459</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>3128.49082011308</v>
+        <v>2969.80617012652</v>
       </c>
       <c r="C36" t="n">
-        <v>2006.84575480805</v>
+        <v>2091.2593545314</v>
       </c>
       <c r="D36" t="n">
-        <v>1586.50257110972</v>
+        <v>1736.89853526662</v>
       </c>
       <c r="E36" t="n">
-        <v>4877.03391657421</v>
+        <v>4217.43418338366</v>
       </c>
       <c r="F36" t="n">
-        <v>6169.20198539972</v>
+        <v>5077.87214338786</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>4686.48762856333</v>
+        <v>4402.96036670126</v>
       </c>
       <c r="C37" t="n">
-        <v>2999.28651729937</v>
+        <v>3092.57270122212</v>
       </c>
       <c r="D37" t="n">
-        <v>2368.15871458839</v>
+        <v>2565.08466340281</v>
       </c>
       <c r="E37" t="n">
-        <v>7322.79699388418</v>
+        <v>6268.58666348607</v>
       </c>
       <c r="F37" t="n">
-        <v>9274.36415362667</v>
+        <v>7557.66866775648</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
